--- a/tweets_rappi.xlsx
+++ b/tweets_rappi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\projeto2_CD2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\projeto2_CD2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24EEF76-0944-406E-A12D-79794FF22852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D1779-C76E-4C4B-99B4-B75E9E20AD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2007,14 +2007,14 @@
       <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="82.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2157,12 +2157,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>40</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>96</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>102</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>103</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>106</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>109</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>110</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>111</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>112</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>113</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>115</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>116</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>118</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>120</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>121</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>122</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>123</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>124</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>126</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>127</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>128</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>129</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>130</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>131</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>132</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>138</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>140</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>73</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>141</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>142</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>144</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>145</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>146</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>147</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>73</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>148</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>149</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>150</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>151</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>152</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>153</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>154</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>155</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>156</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>157</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>158</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>84</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>161</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>162</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>163</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>164</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>165</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>166</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>167</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>168</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>169</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>170</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>171</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>172</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>173</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>174</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>175</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>176</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>177</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>178</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>179</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>180</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>152</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>181</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>66</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>182</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>66</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>183</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>40</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>40</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>184</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>185</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>186</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>66</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>187</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>188</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>189</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>190</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>131</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>191</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>192</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>193</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>194</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>195</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>196</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>197</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>198</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>199</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>131</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>200</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>201</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>202</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>203</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>204</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>205</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>206</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>207</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>208</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>209</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>210</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>211</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>212</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>213</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>214</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>215</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>216</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>217</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>218</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>219</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>220</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>221</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>222</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>223</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>224</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>225</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>226</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>66</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>66</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>227</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>95</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>228</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>229</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>230</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>231</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>232</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>233</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>234</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>76</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>235</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>236</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>237</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>238</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>239</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>152</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>240</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>241</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>242</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>243</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>244</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>245</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>246</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>247</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>248</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>249</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>250</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>251</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>252</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>188</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>253</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>254</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>255</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>256</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>257</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>73</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>258</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>259</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>76</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>260</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>261</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>262</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>263</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>264</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>265</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>266</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>267</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>66</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>131</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>268</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>269</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>270</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>271</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>272</v>
       </c>
@@ -4434,13 +4434,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
     </row>
   </sheetData>
@@ -4453,17 +4453,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>273</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>274</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>275</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>276</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>277</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>278</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>279</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>280</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>281</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>282</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>284</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>285</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>286</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>287</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>288</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>289</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>290</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>291</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>292</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>293</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>294</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>295</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>296</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>131</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>297</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>298</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>299</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>300</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>301</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>302</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>303</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>304</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>305</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>306</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>307</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>308</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>309</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>310</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>311</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>312</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>313</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>314</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>315</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>316</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>317</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>188</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>318</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>319</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>320</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>321</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>322</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>323</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>324</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>325</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>326</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>327</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>328</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>329</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>330</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>331</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>332</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>333</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>334</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>336</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>337</v>
       </c>
@@ -5031,657 +5031,1047 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
     </row>
   </sheetData>

--- a/tweets_rappi.xlsx
+++ b/tweets_rappi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\projeto2_CD2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\projeto2_CD2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D1779-C76E-4C4B-99B4-B75E9E20AD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533E6BC-AD29-4308-99DF-00B68BBC3802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1639,7 +1639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,6 +1663,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,14 +2008,14 @@
       <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="82.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2157,12 +2158,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>40</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>96</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>102</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>103</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>106</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>109</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>110</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>111</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>112</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>113</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>115</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>116</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>118</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>120</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>121</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>122</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>123</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>124</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>126</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>127</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>128</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>129</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>130</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>131</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>132</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>138</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>140</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>73</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>141</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>142</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>144</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>145</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>146</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>147</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>73</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>148</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>149</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>150</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>151</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>152</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>153</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>154</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>155</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>156</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>157</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>158</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>84</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>161</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>162</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>163</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>164</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>165</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>166</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>167</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>168</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>169</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>170</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>171</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>172</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>173</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>174</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>175</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>176</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>177</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>178</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>179</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>180</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>152</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>181</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>66</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>182</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>66</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>183</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>40</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>40</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>184</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>185</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>186</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>66</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>187</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>188</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>189</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>190</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>131</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>191</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>192</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>193</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>194</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>195</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>196</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>197</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>198</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>199</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>131</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>200</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>201</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>202</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>203</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>204</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>205</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>206</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>207</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>208</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>209</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>210</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>211</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>212</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>213</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>214</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>215</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>216</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>217</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>218</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>219</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>220</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>221</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>222</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>223</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>224</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>225</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>226</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>66</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>66</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>227</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>95</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>228</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>229</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>230</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>231</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>232</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>233</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>234</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>76</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>235</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>236</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>237</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>238</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>239</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>152</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>240</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>241</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>242</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>243</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>244</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>245</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>246</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>247</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>248</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>249</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>250</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>251</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>252</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>188</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>253</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>254</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>255</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>256</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>257</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>73</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>258</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>259</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>76</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>260</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>261</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>262</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>263</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>264</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>265</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>266</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>267</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>66</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>131</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>268</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>269</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>270</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>271</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>272</v>
       </c>
@@ -4434,13 +4435,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
   </sheetData>
@@ -4453,17 +4454,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>273</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>274</v>
       </c>
@@ -4479,15 +4480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>276</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>277</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>278</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>279</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>280</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -4535,15 +4536,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>282</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -4559,15 +4560,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>285</v>
       </c>
@@ -4575,15 +4576,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>287</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>288</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>289</v>
       </c>
@@ -4607,15 +4608,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>291</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>292</v>
       </c>
@@ -4631,23 +4632,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>295</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>296</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>131</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>297</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>298</v>
       </c>
@@ -4687,15 +4688,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>300</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>301</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>302</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>303</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>304</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>305</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>306</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>307</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>308</v>
       </c>
@@ -4783,15 +4784,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>310</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>311</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>312</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>313</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>314</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>315</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>316</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>317</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>188</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>318</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>319</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>320</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>321</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>322</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>323</v>
       </c>
@@ -4911,15 +4912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>325</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>326</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>327</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>328</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>329</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>330</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>331</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>332</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>333</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>334</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>336</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>337</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>338</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>339</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>340</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>341</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>342</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>343</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>344</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>345</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>346</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>347</v>
       </c>
@@ -5119,15 +5120,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>349</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>350</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>351</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>352</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>353</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>354</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>355</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>356</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>358</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>359</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>360</v>
       </c>
@@ -5223,23 +5224,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>363</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>364</v>
       </c>
@@ -5255,15 +5256,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>366</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>367</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>368</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>369</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>370</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>371</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>372</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>373</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>374</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>375</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>376</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>377</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>378</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>76</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>379</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>380</v>
       </c>
@@ -5391,31 +5392,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>95</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>384</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>385</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>386</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>387</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>388</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>389</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>390</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>391</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>392</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>394</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>73</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>395</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>396</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>397</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>398</v>
       </c>
@@ -5551,15 +5552,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>400</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>401</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>402</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>220</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>403</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>404</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>405</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>406</v>
       </c>
@@ -5631,15 +5632,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>408</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>409</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>131</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>131</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>410</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>411</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>412</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>413</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>414</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>415</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>416</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>417</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>418</v>
       </c>
@@ -5743,15 +5744,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>420</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>421</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>422</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>423</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>424</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>425</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>426</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>427</v>
       </c>
@@ -5815,15 +5816,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B170" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>429</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>430</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>431</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>432</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>433</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>95</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>434</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>435</v>
       </c>
@@ -5887,39 +5888,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>440</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>441</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>442</v>
       </c>
@@ -5943,15 +5944,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>444</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>445</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>446</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>447</v>
       </c>
@@ -5983,23 +5984,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>450</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>451</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>452</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>453</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>454</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>455</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>456</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>457</v>
       </c>
@@ -6063,18 +6064,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tweets_rappi.xlsx
+++ b/tweets_rappi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\projeto2_CD2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proejto 2\projeto2_CD2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533E6BC-AD29-4308-99DF-00B68BBC3802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E9C69-3C1B-42D8-B0E4-DC343BA0B387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2004,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,6 +2162,9 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -4454,7 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
